--- a/biology/Zoologie/Bipes/Bipes.xlsx
+++ b/biology/Zoologie/Bipes/Bipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bipes est un genre d'amphisbènes, seul membre de la famille des Bipedidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipes est un genre d'amphisbènes, seul membre de la famille des Bipedidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois espèces de ce genre sont endémiques du Mexique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles se caractérisent par la présence de pattes avant.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 mars 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 mars 2015) :
 Bipes biporus (Cope, 1894)
 Bipes canaliculatus Bonnaterre, 1789
 Bipes tridactylus (Dugès, 1894)</t>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sonnini de Manoncourt &amp; Latreille, 1801 : Histoire naturelle des reptiles : avec figures dessinées d'apres nature, vol. 2, p. 1–332 (texte intégral).
 Taylor, 1951 : Concerning Oligocene amphisbaenid reptiles. University of Kansas Science Bulletin, vol. 34, n. 9, p. 521–579 (texte intégral).</t>
